--- a/AgileDoc/SprintBacklog.xlsx
+++ b/AgileDoc/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CapstoneProject\peer-to-peer-lending-system\AgileDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A30581F-1BCD-46AA-9539-F94A69DF5A21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656D6226-4F94-43EC-947C-76933EC7761E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{1C9AD968-3D77-4095-B13B-FA04CBE92F94}"/>
   </bookViews>
@@ -679,7 +679,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
